--- a/user_list.xlsx
+++ b/user_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,16 @@
           <t>Instance</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>start_password</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -532,6 +542,16 @@
           <t>healthelink</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>5e884898da28047151d0e56f8dc6292773603d0d6aabbdd62a11ef721d1542d8</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -580,6 +600,16 @@
           <t>healthelink</t>
         </is>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>5e884898da28047151d0e56f8dc6292773603d0d6aabbdd62a11ef721d1542d8</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -628,6 +658,16 @@
           <t>healthelink</t>
         </is>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>5e884898da28047151d0e56f8dc6292773603d0d6aabbdd62a11ef721d1542d8</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -676,6 +716,16 @@
           <t>healthelink</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>5e884898da28047151d0e56f8dc6292773603d0d6aabbdd62a11ef721d1542d8</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -724,6 +774,16 @@
           <t>healthelink</t>
         </is>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>5e884898da28047151d0e56f8dc6292773603d0d6aabbdd62a11ef721d1542d8</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -772,6 +832,16 @@
           <t>healthelink</t>
         </is>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>5e884898da28047151d0e56f8dc6292773603d0d6aabbdd62a11ef721d1542d8</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -820,6 +890,16 @@
           <t>healthelink</t>
         </is>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>5e884898da28047151d0e56f8dc6292773603d0d6aabbdd62a11ef721d1542d8</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -868,6 +948,16 @@
           <t>healthelink</t>
         </is>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>5e884898da28047151d0e56f8dc6292773603d0d6aabbdd62a11ef721d1542d8</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -916,6 +1006,16 @@
           <t>healthelink</t>
         </is>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>5e884898da28047151d0e56f8dc6292773603d0d6aabbdd62a11ef721d1542d8</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -964,6 +1064,16 @@
           <t>healthelink</t>
         </is>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>5e884898da28047151d0e56f8dc6292773603d0d6aabbdd62a11ef721d1542d8</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1008,6 +1118,16 @@
           <t>healthelink</t>
         </is>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>5e884898da28047151d0e56f8dc6292773603d0d6aabbdd62a11ef721d1542d8</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1052,6 +1172,16 @@
           <t>healthelink</t>
         </is>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>5e884898da28047151d0e56f8dc6292773603d0d6aabbdd62a11ef721d1542d8</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1100,6 +1230,16 @@
           <t>healthelink</t>
         </is>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>5e884898da28047151d0e56f8dc6292773603d0d6aabbdd62a11ef721d1542d8</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1148,6 +1288,16 @@
           <t>healthelink</t>
         </is>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>5e884898da28047151d0e56f8dc6292773603d0d6aabbdd62a11ef721d1542d8</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1192,6 +1342,16 @@
           <t>thriveAI</t>
         </is>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>5e884898da28047151d0e56f8dc6292773603d0d6aabbdd62a11ef721d1542d8</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1240,6 +1400,16 @@
           <t>weltellai</t>
         </is>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>5e884898da28047151d0e56f8dc6292773603d0d6aabbdd62a11ef721d1542d8</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1288,6 +1458,16 @@
           <t>weltellai</t>
         </is>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>5e884898da28047151d0e56f8dc6292773603d0d6aabbdd62a11ef721d1542d8</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1334,6 +1514,226 @@
       <c r="J19" t="inlineStr">
         <is>
           <t>weltellai</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>5e884898da28047151d0e56f8dc6292773603d0d6aabbdd62a11ef721d1542d8</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Joe Eberle</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Joe</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Eberle</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>thriveai-je</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>thriveAI</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>5e884898da28047151d0e56f8dc6292773603d0d6aabbdd62a11ef721d1542d8</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kyle Root </t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Kyle</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Root </t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>thriveai-kr</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>thriveAI</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>5e884898da28047151d0e56f8dc6292773603d0d6aabbdd62a11ef721d1542d8</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Rob Enderle</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Rob</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Enderle</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>thriveai-re</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>thriveAI</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>5e884898da28047151d0e56f8dc6292773603d0d6aabbdd62a11ef721d1542d8</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Al Seoud</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Seoud</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>thriveai-as</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>thriveAI</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>5e884898da28047151d0e56f8dc6292773603d0d6aabbdd62a11ef721d1542d8</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Frank Metty</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Frank</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Metty</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>thriveai-fm</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>thriveAI</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>5e884898da28047151d0e56f8dc6292773603d0d6aabbdd62a11ef721d1542d8</t>
         </is>
       </c>
     </row>
